--- a/public/contenido-sig/archivos/Formatos/Formatos/Solicitud de designacion de automovil.xlsx
+++ b/public/contenido-sig/archivos/Formatos/Formatos/Solicitud de designacion de automovil.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995"/>
@@ -350,6 +350,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -360,30 +384,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -795,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A27" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -813,41 +813,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
@@ -933,10 +933,10 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="25"/>
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
@@ -958,10 +958,10 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="25"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1128,23 +1128,23 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:9" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="33" t="s">
+      <c r="G35" s="30"/>
+      <c r="H35" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="34"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
@@ -1179,23 +1179,23 @@
       <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="36" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39" t="s">
+      <c r="E39" s="34"/>
+      <c r="F39" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="37" t="s">
+      <c r="G39" s="36"/>
+      <c r="H39" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="38"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
@@ -1743,6 +1743,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:E35"/>
@@ -1751,17 +1757,14 @@
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.56000000000000005" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;"Arial,Normal"&amp;9F-SA-DES_AUT</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>